--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail13 Features.xlsx
@@ -777,7 +777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,29 +788,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="17" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="17" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -831,115 +829,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -956,72 +944,66 @@
         <v>3.53887570403457e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.1508146756447516</v>
+        <v>1.482222846433728e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.7801720165183221</v>
+        <v>8.082830647439334e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.482222846433728e-06</v>
+        <v>0.01494394836495257</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.082830647439334e-06</v>
+        <v>0.1847490258443417</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01494394836495257</v>
+        <v>0.03433128145085378</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1847490258443417</v>
+        <v>1.910794501080399</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03433128145085378</v>
+        <v>2.873372524294203</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.947260942207526</v>
+        <v>5.923696901222756</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.873372524294203</v>
+        <v>2.653725896282285e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.923696901222756</v>
+        <v>1911088530.796507</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.653725896282285e-16</v>
+        <v>6.218279155024436e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1911088530.796507</v>
+        <v>969.2095276854263</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.218279155024436e-08</v>
+        <v>9.484826744998114e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>969.2095276854263</v>
+        <v>11.07376904933939</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>9.484826744998114e-05</v>
+        <v>1.149731782851012</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.07376904933939</v>
+        <v>0.01163108757710736</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.149731782851012</v>
+        <v>5.108064581320226</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01163108757710736</v>
+        <v>0.9572399465678807</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.108064581320226</v>
+        <v>0.8785179571740337</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9572399465678807</v>
+        <v>8</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8785179571740337</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>5.328601165367646</v>
       </c>
     </row>
@@ -1036,72 +1018,66 @@
         <v>3.469687233427653e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.06583316667605994</v>
+        <v>1.26829670122315e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.9387593813810455</v>
+        <v>8.086247175962842e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.26829670122315e-06</v>
+        <v>0.00472771391708772</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8.086247175962842e-06</v>
+        <v>0.17139455302238</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.00472771391708772</v>
+        <v>0.02937722036622735</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.17139455302238</v>
+        <v>1.909265458804778</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02937722036622735</v>
+        <v>2.624685064118973</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.945750831722828</v>
+        <v>5.932276638408858</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.624685064118973</v>
+        <v>3.832382108494777e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.932276638408858</v>
+        <v>1339225407.830937</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.832382108494777e-16</v>
+        <v>8.837123369779849e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1339225407.830937</v>
+        <v>687.347194451991</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.837123369779849e-08</v>
+        <v>0.0001281586119505018</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>687.347194451991</v>
+        <v>12.4805070061809</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001281586119505018</v>
+        <v>1.061205440848445</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.4805070061809</v>
+        <v>0.0199623769388008</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.061205440848445</v>
+        <v>4.407287487700953</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0199623769388008</v>
+        <v>0.9571430872640231</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.407287487700953</v>
+        <v>0.907668036033826</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9571430872640231</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.907668036033826</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>4.087580039485591</v>
       </c>
     </row>
@@ -1116,72 +1092,66 @@
         <v>3.466291170399442e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.06143627441182189</v>
+        <v>1.170701366443974e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9465589562988024</v>
+        <v>8.086398268729936e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.170701366443974e-06</v>
+        <v>-0.003271768367069603</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.086398268729936e-06</v>
+        <v>0.1593957942996129</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.003271768367069603</v>
+        <v>0.02540665194643124</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1593957942996129</v>
+        <v>1.887981878045896</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02540665194643124</v>
+        <v>2.4436042500219</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.918815902874041</v>
+        <v>5.728993479573038</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.4436042500219</v>
+        <v>5.525370605291256e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.728993479573038</v>
+        <v>946950640.6629071</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.525370605291256e-16</v>
+        <v>1.251539592956504e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>946950640.6629071</v>
+        <v>495.468555259662</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.251539592956504e-07</v>
+        <v>0.0001299414654913111</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>495.468555259662</v>
+        <v>13.42797530976897</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001299414654913111</v>
+        <v>1.002212352354487</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.42797530976897</v>
+        <v>0.02342981333181599</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.002212352354487</v>
+        <v>4.30097572917851</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02342981333181599</v>
+        <v>0.9558364935445369</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.30097572917851</v>
+        <v>1.074111865319798</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9558364935445369</v>
+        <v>8</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.074111865319798</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>3.792077672471327</v>
       </c>
     </row>
@@ -1196,72 +1166,66 @@
         <v>3.499123006853502e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.0830347192329951</v>
+        <v>1.170701366443974e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9398660299180888</v>
+        <v>8.08419145941407e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.170701366443974e-06</v>
+        <v>-0.009197611116480296</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.08419145941407e-06</v>
+        <v>0.1502965977661518</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.009197611116480296</v>
+        <v>0.02266590925111119</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1502965977661518</v>
+        <v>1.881603580639031</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02266590925111119</v>
+        <v>2.398464819743849</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.899051688064617</v>
+        <v>6.030243907798639</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.398464819743849</v>
+        <v>1.0849485115283e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>6.030243907798639</v>
+        <v>488195542.3844634</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.0849485115283e-15</v>
+        <v>2.426718415007328e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>488195542.3844634</v>
+        <v>258.5810815512899</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.426718415007328e-07</v>
+        <v>0.00018354577941306</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>258.5810815512899</v>
+        <v>10.70913211487725</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.00018354577941306</v>
+        <v>1.569866884547642</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.70913211487725</v>
+        <v>0.02105004144035399</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.569866884547642</v>
+        <v>3.979754421045989</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02105004144035399</v>
+        <v>0.955963172591355</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.979754421045989</v>
+        <v>1.373322609433689</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.955963172591355</v>
+        <v>9</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.373322609433689</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>2.357066285143011</v>
       </c>
     </row>
@@ -1638,7 +1602,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.393649051538229</v>
+        <v>1.38766019576032</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.392436357587849</v>
@@ -1727,7 +1691,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.394093526070158</v>
+        <v>1.390203516063659</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.404663140143983</v>
@@ -1816,7 +1780,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.400144325554046</v>
+        <v>1.39224952286187</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.320157959258463</v>
@@ -1905,7 +1869,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.40037349748577</v>
+        <v>1.391776300674225</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.329719966864669</v>
@@ -1994,7 +1958,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.407943131229342</v>
+        <v>1.398143515457128</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.40824723526811</v>
@@ -2083,7 +2047,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.437260881390263</v>
+        <v>1.423329108616017</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.218315063448359</v>
@@ -2172,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.44147015807122</v>
+        <v>1.425259390895738</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.31737473322651</v>
@@ -2261,7 +2225,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.452229829749085</v>
+        <v>1.431746137859416</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.565561496112614</v>
@@ -2350,7 +2314,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.456712234265209</v>
+        <v>1.434549195606437</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.704355326180677</v>
@@ -2439,7 +2403,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.464896482671195</v>
+        <v>1.442825368182792</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.793181874609648</v>
@@ -2528,7 +2492,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.46208184366391</v>
+        <v>1.442172054904339</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.670614563782765</v>
@@ -2617,7 +2581,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.469362896929005</v>
+        <v>1.444097473607911</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.04195417342794</v>
@@ -2706,7 +2670,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.476391058787054</v>
+        <v>1.451214836960089</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.837356704734276</v>
@@ -2795,7 +2759,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.487468623590678</v>
+        <v>1.458479812664281</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.774330478972488</v>
@@ -2884,7 +2848,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.494332140773438</v>
+        <v>1.465791615923656</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.956093427794487</v>
@@ -2973,7 +2937,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.478807629767789</v>
+        <v>1.457568483880848</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.374676797549212</v>
@@ -3062,7 +3026,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.46709760488792</v>
+        <v>1.444633754218766</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.556625008133487</v>
@@ -3151,7 +3115,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.462129750697759</v>
+        <v>1.441663551537896</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.530998125363466</v>
@@ -3240,7 +3204,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.464571109963832</v>
+        <v>1.454078615978897</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.609487267934433</v>
@@ -3329,7 +3293,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.473705650144943</v>
+        <v>1.460349476626228</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.508760265078591</v>
@@ -3418,7 +3382,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.476524247573738</v>
+        <v>1.464328378632447</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.524476408979408</v>
@@ -3507,7 +3471,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.485985629197221</v>
+        <v>1.473814150908231</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.654476484327063</v>
@@ -3596,7 +3560,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.478172052595229</v>
+        <v>1.468217394673532</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.559727416415796</v>
@@ -3685,7 +3649,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.451403635579938</v>
+        <v>1.438967408128343</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.389822315143754</v>
@@ -3774,7 +3738,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.430587986433336</v>
+        <v>1.422725194599355</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.288127134689467</v>
@@ -3863,7 +3827,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.436719860584631</v>
+        <v>1.433981891285246</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.292710380444683</v>
@@ -3952,7 +3916,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.432708484247352</v>
+        <v>1.432198117179817</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.308813964864799</v>
@@ -4041,7 +4005,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.449883038001434</v>
+        <v>1.450828267386833</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.289841106610075</v>
@@ -4130,7 +4094,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.456141044773645</v>
+        <v>1.45847175030892</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.313803159707582</v>
@@ -4219,7 +4183,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.4509452791328</v>
+        <v>1.453247369769787</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.188078018883501</v>
@@ -4308,7 +4272,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.471991501219711</v>
+        <v>1.472634972863292</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.164445997781016</v>
@@ -4397,7 +4361,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.487788754657471</v>
+        <v>1.498216958774794</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.223308309017045</v>
@@ -4486,7 +4450,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.503870169568103</v>
+        <v>1.51468840572077</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.136207944646358</v>
@@ -4575,7 +4539,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.501338934443527</v>
+        <v>1.511494477044211</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.209638967166432</v>
@@ -4664,7 +4628,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.496153632917715</v>
+        <v>1.505305668791683</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.272336906516959</v>
@@ -4753,7 +4717,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.472681637560462</v>
+        <v>1.484197499232872</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.297687517504688</v>
@@ -4842,7 +4806,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.4848803279406</v>
+        <v>1.497963896227007</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.245067931094268</v>
@@ -4931,7 +4895,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.504498201532704</v>
+        <v>1.5155744466595</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.219054526511799</v>
@@ -5020,7 +4984,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.572983356762123</v>
+        <v>1.577370380147685</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.225100914568023</v>
@@ -5109,7 +5073,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.575174822282463</v>
+        <v>1.580860426773077</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.485936193885084</v>
@@ -5198,7 +5162,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.57703844721866</v>
+        <v>1.584536359875691</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.593875560864602</v>
@@ -5287,7 +5251,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.585096373555228</v>
+        <v>1.597678934616521</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.586526537189054</v>
@@ -5376,7 +5340,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.569208148907686</v>
+        <v>1.581378529094664</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.591709176121455</v>
@@ -5465,7 +5429,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.49967008316274</v>
+        <v>1.508524424594326</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.128894287750748</v>
@@ -5554,7 +5518,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.493276237453534</v>
+        <v>1.507329751376294</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.117280217454464</v>
@@ -5643,7 +5607,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.48452350553818</v>
+        <v>1.492478039838776</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.114994249498307</v>
@@ -5732,7 +5696,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.479603315283471</v>
+        <v>1.488187983898491</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.080731682346141</v>
@@ -5821,7 +5785,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.475365636908158</v>
+        <v>1.484770006293819</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.079260238959592</v>
@@ -5910,7 +5874,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.450526362895975</v>
+        <v>1.458497196298687</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.113663413803297</v>
@@ -6196,7 +6160,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.448160224914123</v>
+        <v>1.461575986108358</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.288411720120069</v>
@@ -6285,7 +6249,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.470505324147314</v>
+        <v>1.482453190570578</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.196846257797592</v>
@@ -6374,7 +6338,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.487207865540618</v>
+        <v>1.501029057371583</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.157842632497286</v>
@@ -6463,7 +6427,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.499629607217643</v>
+        <v>1.510579541507921</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.279672641085822</v>
@@ -6552,7 +6516,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.49495463287619</v>
+        <v>1.5065349629797</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.298924689915722</v>
@@ -6641,7 +6605,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.505390303640444</v>
+        <v>1.513372251042308</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.289731725220099</v>
@@ -6730,7 +6694,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.514305604628033</v>
+        <v>1.525407330913449</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.235413268863679</v>
@@ -6819,7 +6783,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.532003208471898</v>
+        <v>1.540435637794457</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.246473867806914</v>
@@ -6908,7 +6872,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.562737295891062</v>
+        <v>1.575608392074498</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.076542659583516</v>
@@ -6997,7 +6961,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.538692629429096</v>
+        <v>1.559739149273392</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.128747238929427</v>
@@ -7086,7 +7050,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.611411404121289</v>
+        <v>1.626049929020696</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.255642446780992</v>
@@ -7175,7 +7139,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.604748868251278</v>
+        <v>1.618545212171342</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.432125421530174</v>
@@ -7264,7 +7228,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.603035044453963</v>
+        <v>1.615873761254637</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.423407980129315</v>
@@ -7353,7 +7317,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.594690162790952</v>
+        <v>1.608362663990388</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.396297258530911</v>
@@ -7442,7 +7406,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.586900326170108</v>
+        <v>1.60048296952915</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.260403742486025</v>
@@ -7531,7 +7495,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.583409794952954</v>
+        <v>1.597629085849426</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.419703594119026</v>
@@ -7620,7 +7584,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.553339067054258</v>
+        <v>1.574515992837704</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.382858839336729</v>
@@ -7709,7 +7673,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.514714878030772</v>
+        <v>1.534505595952421</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.376201084684171</v>
@@ -7798,7 +7762,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.500395159538874</v>
+        <v>1.523882931583548</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.301634934740417</v>
@@ -7887,7 +7851,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.506772675456884</v>
+        <v>1.528675673045987</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.341332428734086</v>
@@ -7976,7 +7940,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.50737835085972</v>
+        <v>1.531022269249612</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.396961747783918</v>
@@ -8065,7 +8029,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.51684145934545</v>
+        <v>1.540469261392544</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.361165861361005</v>
@@ -8154,7 +8118,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.514518246062821</v>
+        <v>1.537164799072581</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.359855290130743</v>
@@ -8243,7 +8207,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.520653864216275</v>
+        <v>1.537891465226567</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.393850729437774</v>
@@ -8332,7 +8296,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.532717419646403</v>
+        <v>1.543588981936892</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.455555320022747</v>
@@ -8421,7 +8385,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.538613536269574</v>
+        <v>1.549004368905276</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.53243648550273</v>
@@ -8510,7 +8474,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.540337255311416</v>
+        <v>1.552951629593217</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.546538576246796</v>
@@ -8599,7 +8563,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.529664490157676</v>
+        <v>1.547834460154009</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.484860820251784</v>
@@ -8688,7 +8652,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.541847050708207</v>
+        <v>1.557794343082604</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.31279293779992</v>
@@ -8777,7 +8741,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.548357036286919</v>
+        <v>1.565858921724763</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.519485741242629</v>
@@ -8866,7 +8830,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.55733820175751</v>
+        <v>1.574673582535478</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.418014152530331</v>
@@ -8955,7 +8919,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.581783255071681</v>
+        <v>1.595731789475097</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.448496168834397</v>
@@ -9044,7 +9008,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.613252300957488</v>
+        <v>1.626163320068745</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.560545993660459</v>
@@ -9133,7 +9097,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.614747592464979</v>
+        <v>1.630781478513268</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.77459262043988</v>
@@ -9222,7 +9186,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.614798777378862</v>
+        <v>1.628894740466556</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.918004787830991</v>
@@ -9311,7 +9275,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.603850195909174</v>
+        <v>1.62133490753524</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.877630671118196</v>
@@ -9400,7 +9364,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.588999194551235</v>
+        <v>1.603647730246167</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.949860386874982</v>
@@ -9489,7 +9453,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.58306527545734</v>
+        <v>1.603779464999027</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.893797947272561</v>
@@ -9578,7 +9542,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.597957265067598</v>
+        <v>1.616374675706988</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.864137814163526</v>
@@ -9667,7 +9631,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.608329935527887</v>
+        <v>1.62957972571918</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.744936579906985</v>
@@ -9756,7 +9720,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.614752829620144</v>
+        <v>1.636383025856217</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.926885175679576</v>
@@ -9845,7 +9809,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.6308628701168</v>
+        <v>1.648268623354733</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.902968874709588</v>
@@ -9934,7 +9898,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.64129161507042</v>
+        <v>1.659701011717152</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.067462213888637</v>
@@ -10023,7 +9987,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.624524381914719</v>
+        <v>1.644413317769321</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.019353004289512</v>
@@ -10112,7 +10076,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.631242711968265</v>
+        <v>1.649250317771201</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.09029018721657</v>
@@ -10201,7 +10165,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.626486717275728</v>
+        <v>1.644656640624006</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.013694047254664</v>
@@ -10290,7 +10254,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.625777536210032</v>
+        <v>1.645095231571812</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.848434093911407</v>
@@ -10379,7 +10343,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.637211424278256</v>
+        <v>1.649058638002578</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.282989401311262</v>
@@ -10468,7 +10432,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.626008031301049</v>
+        <v>1.641634230752083</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.903155908050313</v>
@@ -10754,7 +10718,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.694556868153024</v>
+        <v>1.641428289657987</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.951106476085384</v>
@@ -10843,7 +10807,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.685289542678838</v>
+        <v>1.629002252616302</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.798154100085436</v>
@@ -10932,7 +10896,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.682590709937452</v>
+        <v>1.629529981597408</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.313759265638246</v>
@@ -11021,7 +10985,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.673136848101815</v>
+        <v>1.619784623926671</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.41503944643072</v>
@@ -11110,7 +11074,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.671015142532431</v>
+        <v>1.616719257963561</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.161980780883845</v>
@@ -11199,7 +11163,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.665526964017995</v>
+        <v>1.606714236419246</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.213669250685008</v>
@@ -11288,7 +11252,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.65027970842238</v>
+        <v>1.583181514578266</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.237588327210816</v>
@@ -11377,7 +11341,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.651631554565929</v>
+        <v>1.579239936917396</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.38012641198108</v>
@@ -11466,7 +11430,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.649854631195932</v>
+        <v>1.570988016923881</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.498290877900897</v>
@@ -11555,7 +11519,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.638760345615263</v>
+        <v>1.556993287001008</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.755416316825221</v>
@@ -11644,7 +11608,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.638973404507547</v>
+        <v>1.559376575046085</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.058347743967806</v>
@@ -11733,7 +11697,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.637889668278537</v>
+        <v>1.559899327316175</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.063780425693334</v>
@@ -11822,7 +11786,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.655322624651377</v>
+        <v>1.578012453231992</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.047976111447403</v>
@@ -11911,7 +11875,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.652829657480868</v>
+        <v>1.575653475963677</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.955068245651187</v>
@@ -12000,7 +11964,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.666715449891089</v>
+        <v>1.589700871239754</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.936520294975005</v>
@@ -12089,7 +12053,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.678767127714907</v>
+        <v>1.604532966052132</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.1375530165213</v>
@@ -12178,7 +12142,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.690558282904338</v>
+        <v>1.615594780636273</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.613928209333727</v>
@@ -12267,7 +12231,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.697438815399805</v>
+        <v>1.63161621918664</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.223033152597802</v>
@@ -12356,7 +12320,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.709567163117158</v>
+        <v>1.645121163274883</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.727041169513767</v>
@@ -12445,7 +12409,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.724155597937739</v>
+        <v>1.660073874972949</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.650102632442642</v>
@@ -12534,7 +12498,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.729542079193839</v>
+        <v>1.670713450251653</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.186000702341756</v>
@@ -12623,7 +12587,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.743531675295733</v>
+        <v>1.685023846641292</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.720139276961939</v>
@@ -12712,7 +12676,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.749550196368515</v>
+        <v>1.694478160833963</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.86555633023024</v>
@@ -12801,7 +12765,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.72999649771522</v>
+        <v>1.678566400947334</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.258816107998138</v>
@@ -12890,7 +12854,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.734613222125377</v>
+        <v>1.679444135158383</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.210143189930259</v>
@@ -12979,7 +12943,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.737670672368567</v>
+        <v>1.684943137390596</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.571070644475201</v>
@@ -13068,7 +13032,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.745885674306041</v>
+        <v>1.689231321456241</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.764951779233358</v>
@@ -13157,7 +13121,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.737148907424075</v>
+        <v>1.685195733466099</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.370913315978525</v>
@@ -13246,7 +13210,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.738338209194111</v>
+        <v>1.684075899242276</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.252922746343776</v>
@@ -13335,7 +13299,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.737062695687751</v>
+        <v>1.680409694980858</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.548026179554173</v>
@@ -13424,7 +13388,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.731793289338097</v>
+        <v>1.664165920677908</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.520336904739561</v>
@@ -13513,7 +13477,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.725792522733665</v>
+        <v>1.661272089803011</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.428590376270495</v>
@@ -13602,7 +13566,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.707191930840833</v>
+        <v>1.633846292215552</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.285110353797388</v>
@@ -13691,7 +13655,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.700592118541688</v>
+        <v>1.625223345586357</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.271731658522758</v>
@@ -13780,7 +13744,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.684646179235348</v>
+        <v>1.605604212612828</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.130044956099089</v>
@@ -13869,7 +13833,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.673483128358057</v>
+        <v>1.58969012095509</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.163977802537585</v>
@@ -13958,7 +13922,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.658046395160894</v>
+        <v>1.579264390832346</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.25144561531973</v>
@@ -14047,7 +14011,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.663088963087012</v>
+        <v>1.584053955394606</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.990467081243009</v>
@@ -14136,7 +14100,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.690851373691271</v>
+        <v>1.608463705489192</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.463068111230794</v>
@@ -14225,7 +14189,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.695447109336557</v>
+        <v>1.618936435607195</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.057817629408749</v>
@@ -14314,7 +14278,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.68300632577907</v>
+        <v>1.608627519856235</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.184507855144538</v>
@@ -14403,7 +14367,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.686981357561443</v>
+        <v>1.614974860290672</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.155675735761152</v>
@@ -14492,7 +14456,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.679247696575318</v>
+        <v>1.605263537236561</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.255120003689234</v>
@@ -14581,7 +14545,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.662865259508401</v>
+        <v>1.597593398919684</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.556352149929881</v>
@@ -14670,7 +14634,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.65761801646977</v>
+        <v>1.597720760013521</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.099602917392924</v>
@@ -14759,7 +14723,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.654320731242607</v>
+        <v>1.60518051869491</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.200244194518573</v>
@@ -14848,7 +14812,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.653209185884359</v>
+        <v>1.603786814647456</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.008673081503321</v>
@@ -14937,7 +14901,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.660947259403619</v>
+        <v>1.614343114631846</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.454417520254369</v>
@@ -15026,7 +14990,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.657265369235366</v>
+        <v>1.610874183833959</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.052917002338738</v>
@@ -15312,7 +15276,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.774071281649104</v>
+        <v>1.745821589305839</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.669575776172973</v>
@@ -15401,7 +15365,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.773692137896854</v>
+        <v>1.742059666970662</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.524543050430002</v>
@@ -15490,7 +15454,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.791071052597129</v>
+        <v>1.759698431650831</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.399487318213316</v>
@@ -15579,7 +15543,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.788369025809238</v>
+        <v>1.753225182128274</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.621913634085816</v>
@@ -15668,7 +15632,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.79666770001498</v>
+        <v>1.765817050543176</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.269164522254109</v>
@@ -15757,7 +15721,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.807610459400234</v>
+        <v>1.772953623077465</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.733085136749335</v>
@@ -15846,7 +15810,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.802827732054363</v>
+        <v>1.768099380845948</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.613311486183039</v>
@@ -15935,7 +15899,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.802759304862782</v>
+        <v>1.770127333286818</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.145766587646617</v>
@@ -16024,7 +15988,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.812574414170096</v>
+        <v>1.770439312716669</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.599134607950188</v>
@@ -16113,7 +16077,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.805077734640816</v>
+        <v>1.771769882691399</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.760342873032133</v>
@@ -16202,7 +16166,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.806773286005869</v>
+        <v>1.777329779895122</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.716656107202048</v>
@@ -16291,7 +16255,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.81473571599085</v>
+        <v>1.787095224591088</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.208432335849119</v>
@@ -16380,7 +16344,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.81988088983287</v>
+        <v>1.790910522570855</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.071890043949906</v>
@@ -16469,7 +16433,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.827496526197036</v>
+        <v>1.803428492048729</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.093994851363003</v>
@@ -16558,7 +16522,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.828657420092816</v>
+        <v>1.807733563485291</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.69033247728349</v>
@@ -16647,7 +16611,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.838438918462767</v>
+        <v>1.821375133244833</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.611477887459272</v>
@@ -16736,7 +16700,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.81642464402979</v>
+        <v>1.805065398178967</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.847304516812154</v>
@@ -16825,7 +16789,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.818891661288737</v>
+        <v>1.807894713207409</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.89790453728846</v>
@@ -16914,7 +16878,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.831256825450374</v>
+        <v>1.822086652709192</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.10786936811485</v>
@@ -17003,7 +16967,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.833035929131893</v>
+        <v>1.82458342972612</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.574684869511344</v>
@@ -17092,7 +17056,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.84145704902177</v>
+        <v>1.832515966114697</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.902453286843599</v>
@@ -17181,7 +17145,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.844273455305988</v>
+        <v>1.838263070571699</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.087622292298963</v>
@@ -17270,7 +17234,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.846382210071312</v>
+        <v>1.841364823081935</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.925223451724376</v>
@@ -17359,7 +17323,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.840921544843432</v>
+        <v>1.833526372940005</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.22855244599641</v>
@@ -17448,7 +17412,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.847621835220577</v>
+        <v>1.838338487995296</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.302695595110809</v>
@@ -17537,7 +17501,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.850474993191841</v>
+        <v>1.840863820718169</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.904111366042621</v>
@@ -17626,7 +17590,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.852255986961092</v>
+        <v>1.844019167099551</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.43538057731117</v>
@@ -17715,7 +17679,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.855112273498065</v>
+        <v>1.851419135920692</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.378729871761258</v>
@@ -17804,7 +17768,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.857460970461059</v>
+        <v>1.846769720420008</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.883718077189365</v>
@@ -17893,7 +17857,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.853476354544451</v>
+        <v>1.841560437557606</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.918419032040106</v>
@@ -17982,7 +17946,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.859046468975188</v>
+        <v>1.846944943535461</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.018695713983408</v>
@@ -18071,7 +18035,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.880551291587675</v>
+        <v>1.867396758336345</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.255234502132159</v>
@@ -18160,7 +18124,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.879660245475885</v>
+        <v>1.865451040503068</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.390197079608212</v>
@@ -18249,7 +18213,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.869004255057362</v>
+        <v>1.855165794871245</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.144601990230868</v>
@@ -18338,7 +18302,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.86382931428349</v>
+        <v>1.846786191752843</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.359677927046468</v>
@@ -18427,7 +18391,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.855421675802677</v>
+        <v>1.839427505455509</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.896170612992735</v>
@@ -18516,7 +18480,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.853367305903403</v>
+        <v>1.838874955967492</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.452524580534841</v>
@@ -18605,7 +18569,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.852773475335133</v>
+        <v>1.833652369104887</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.38985082570704</v>
@@ -18694,7 +18658,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.869908364885283</v>
+        <v>1.851361541927585</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.519139863569142</v>
@@ -18783,7 +18747,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.879313165228206</v>
+        <v>1.86625248142414</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.443777484247752</v>
@@ -18872,7 +18836,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.883620744647598</v>
+        <v>1.871551341483583</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.776689415343041</v>
@@ -18961,7 +18925,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.879384760000273</v>
+        <v>1.870261244994656</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.851147621850864</v>
@@ -19050,7 +19014,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.878490160883601</v>
+        <v>1.868893533824198</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.318574687549045</v>
@@ -19139,7 +19103,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.861811186022477</v>
+        <v>1.8573353033251</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.105135711908295</v>
@@ -19228,7 +19192,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.866771480343836</v>
+        <v>1.865407287532818</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.241454194165585</v>
@@ -19317,7 +19281,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.859073838669913</v>
+        <v>1.860453251300437</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.82824630167599</v>
@@ -19406,7 +19370,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.855414316176589</v>
+        <v>1.856540228597406</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.276598068297055</v>
@@ -19495,7 +19459,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.864643782816357</v>
+        <v>1.864948861929616</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.462809443905437</v>
@@ -19584,7 +19548,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.86429074586284</v>
+        <v>1.866386155614987</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.361169755268201</v>
@@ -19870,7 +19834,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.516892416641864</v>
+        <v>1.510920581542676</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.317807140621932</v>
@@ -19959,7 +19923,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.524537120997205</v>
+        <v>1.51427956312555</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.391664240997937</v>
@@ -20048,7 +20012,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.549249200075817</v>
+        <v>1.538475628545676</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.383314071385731</v>
@@ -20137,7 +20101,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.549433720937022</v>
+        <v>1.542533287797191</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.323303160096772</v>
@@ -20226,7 +20190,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.549732263683621</v>
+        <v>1.545304008946004</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.388113670417491</v>
@@ -20315,7 +20279,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.536018998064065</v>
+        <v>1.533421328631869</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.367153114787342</v>
@@ -20404,7 +20368,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.54937266489249</v>
+        <v>1.549907019548495</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.27060512898308</v>
@@ -20493,7 +20457,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.564675433860431</v>
+        <v>1.564699148214371</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.314222627851625</v>
@@ -20582,7 +20546,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.61030645773504</v>
+        <v>1.599042199452534</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.701106978874786</v>
@@ -20671,7 +20635,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.514244206586887</v>
+        <v>1.518271407916462</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.295238226064079</v>
@@ -20760,7 +20724,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.516994354402609</v>
+        <v>1.52194366903596</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.321792660200436</v>
@@ -20849,7 +20813,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.507456475415567</v>
+        <v>1.515384089087808</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.278120816685977</v>
@@ -20938,7 +20902,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.501659958998178</v>
+        <v>1.511600531842252</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.322167677215845</v>
@@ -21027,7 +20991,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.505400521988832</v>
+        <v>1.515672463824258</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.36069787964377</v>
@@ -21116,7 +21080,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.504651414075707</v>
+        <v>1.513780270397149</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.256556461818889</v>
@@ -21205,7 +21169,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.497760721205444</v>
+        <v>1.500856046992932</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.363911993321362</v>
@@ -21294,7 +21258,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.475946302431297</v>
+        <v>1.481917930199599</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.344710571944661</v>
@@ -21383,7 +21347,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.463704869927754</v>
+        <v>1.467295228460412</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.306902181054169</v>
@@ -21472,7 +21436,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.461389816384342</v>
+        <v>1.465411642348744</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.355191713433846</v>
@@ -21561,7 +21525,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.462590377058165</v>
+        <v>1.467006729085893</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.394430944998405</v>
@@ -21650,7 +21614,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.481703801199407</v>
+        <v>1.488704087497723</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.388108887096926</v>
@@ -21739,7 +21703,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.476580678189781</v>
+        <v>1.484167058405207</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.390077570801179</v>
@@ -21828,7 +21792,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.479830416544043</v>
+        <v>1.485243553008312</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.405375772401785</v>
@@ -21917,7 +21881,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.506079252630553</v>
+        <v>1.502784380198931</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.277655469197505</v>
@@ -22006,7 +21970,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.571286793861553</v>
+        <v>1.560235861924274</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.619977040677807</v>
@@ -22095,7 +22059,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.571239445931702</v>
+        <v>1.561118159656014</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.870203880422165</v>
@@ -22184,7 +22148,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.589375065803204</v>
+        <v>1.576093700042268</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.80173382097835</v>
@@ -22273,7 +22237,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.591943805780415</v>
+        <v>1.578653610710834</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.807549149742246</v>
@@ -22362,7 +22326,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.599470161414142</v>
+        <v>1.582349991690238</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.842201677391379</v>
@@ -22451,7 +22415,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.602731876707748</v>
+        <v>1.582944394342878</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.741016972967625</v>
@@ -22540,7 +22504,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.627928168414035</v>
+        <v>1.608694375660245</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.869403504178402</v>
@@ -22629,7 +22593,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.655946160873681</v>
+        <v>1.635105281991395</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.690857580066476</v>
@@ -22718,7 +22682,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.677080006582862</v>
+        <v>1.655120986124313</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.249598267413658</v>
@@ -22807,7 +22771,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.675726103133707</v>
+        <v>1.656887735581151</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.216650081625976</v>
@@ -22896,7 +22860,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.667605209609239</v>
+        <v>1.648273219852782</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.048625454676894</v>
@@ -22985,7 +22949,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.646448881093715</v>
+        <v>1.621933327164298</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.973331079366494</v>
@@ -23074,7 +23038,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.64135304326335</v>
+        <v>1.61357343772679</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.067332357328644</v>
@@ -23163,7 +23127,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.643355844170899</v>
+        <v>1.614903281559577</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.246013447179781</v>
@@ -23252,7 +23216,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.663163090251793</v>
+        <v>1.637194738282445</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.114999899704127</v>
@@ -23341,7 +23305,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.651958420970091</v>
+        <v>1.628217757533017</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.352392018885827</v>
@@ -23430,7 +23394,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.651250804529723</v>
+        <v>1.624741145097824</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.471142202885892</v>
@@ -23519,7 +23483,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.635912531236393</v>
+        <v>1.609402872899315</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.345376441078223</v>
@@ -23608,7 +23572,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.632817403065416</v>
+        <v>1.598838621092224</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.18546047701387</v>
@@ -23697,7 +23661,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.613280555609909</v>
+        <v>1.586445808635087</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.994772622097692</v>
@@ -23786,7 +23750,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.621145478066406</v>
+        <v>1.593831709583519</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.099740704719195</v>
@@ -23875,7 +23839,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.611326518102477</v>
+        <v>1.584536098933691</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.931430862323037</v>
@@ -23964,7 +23928,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.605791151187904</v>
+        <v>1.579693537000493</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.070917897477621</v>
@@ -24053,7 +24017,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.6255866916626</v>
+        <v>1.597047456664841</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.791794620757423</v>
@@ -24142,7 +24106,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.610503709506165</v>
+        <v>1.584518287247791</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.056105577327357</v>
@@ -24428,7 +24392,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.53359873692602</v>
+        <v>1.564667591259262</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.633590988166847</v>
@@ -24517,7 +24481,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.544273290698115</v>
+        <v>1.574726054342295</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.699607033833007</v>
@@ -24606,7 +24570,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.568593815976121</v>
+        <v>1.597500107643523</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.529636565759966</v>
@@ -24695,7 +24659,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.579853921202294</v>
+        <v>1.614387208677959</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.726689781462976</v>
@@ -24784,7 +24748,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.615142933321865</v>
+        <v>1.650725303788189</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.625858935576221</v>
@@ -24873,7 +24837,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.637666033203089</v>
+        <v>1.674398348327776</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.407664833474403</v>
@@ -24962,7 +24926,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.669501305386696</v>
+        <v>1.705790736572774</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.867119832427058</v>
@@ -25051,7 +25015,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.659968334778127</v>
+        <v>1.701964114423088</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.820157059505447</v>
@@ -25140,7 +25104,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.687657941639825</v>
+        <v>1.730939027940315</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.974815474953655</v>
@@ -25229,7 +25193,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.657959863454616</v>
+        <v>1.70237441781416</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.201572084639349</v>
@@ -25318,7 +25282,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.661388306871169</v>
+        <v>1.713988001487838</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.115641855871885</v>
@@ -25407,7 +25371,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.674648072967337</v>
+        <v>1.727818584155033</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.023758534033967</v>
@@ -25496,7 +25460,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.679326121084249</v>
+        <v>1.731030997364457</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.116194030348943</v>
@@ -25585,7 +25549,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.699481549898973</v>
+        <v>1.751425546803656</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.256211096612434</v>
@@ -25674,7 +25638,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.709999723598299</v>
+        <v>1.765424292480505</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.801152590524417</v>
@@ -25763,7 +25727,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.735206026177339</v>
+        <v>1.785551756923134</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.149841555178605</v>
@@ -25852,7 +25816,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.698059027806814</v>
+        <v>1.748690683137828</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.335010250297578</v>
@@ -25941,7 +25905,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.652948552260785</v>
+        <v>1.705232956930195</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.535979054297989</v>
@@ -26030,7 +25994,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.65081668881833</v>
+        <v>1.702754298203005</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.582025152848994</v>
@@ -26119,7 +26083,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.645786172735559</v>
+        <v>1.699545585185793</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.744343002644317</v>
@@ -26208,7 +26172,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.657700316152338</v>
+        <v>1.710484635847191</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.79173203676066</v>
@@ -26297,7 +26261,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.674272622290177</v>
+        <v>1.72682017370277</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.686641737283669</v>
@@ -26386,7 +26350,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.686139482881471</v>
+        <v>1.737690810462649</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.820887001777113</v>
@@ -26475,7 +26439,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.688283186044211</v>
+        <v>1.736359813653314</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.65189654665971</v>
@@ -26564,7 +26528,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.710530727853073</v>
+        <v>1.761262707711367</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.727564509277818</v>
@@ -26653,7 +26617,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.699885742453281</v>
+        <v>1.75442778081787</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.634841523262856</v>
@@ -26742,7 +26706,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.693774716925423</v>
+        <v>1.749784233166725</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.775284391204134</v>
@@ -26831,7 +26795,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.697136017951389</v>
+        <v>1.75509835825278</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.765384193257435</v>
@@ -26920,7 +26884,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.694484515135686</v>
+        <v>1.747831946345099</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.790101403296862</v>
@@ -27009,7 +26973,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.683211943883923</v>
+        <v>1.736556020080365</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.843394339215804</v>
@@ -27098,7 +27062,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.689918500501023</v>
+        <v>1.73902217239196</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.694495110953114</v>
@@ -27187,7 +27151,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.721447366333984</v>
+        <v>1.771655051851376</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.675656954354714</v>
@@ -27276,7 +27240,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.763650111812086</v>
+        <v>1.811515715351465</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.82585742854432</v>
@@ -27365,7 +27329,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.764153129650325</v>
+        <v>1.810705519457123</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.402798393752806</v>
@@ -27454,7 +27418,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.759540232285236</v>
+        <v>1.80671003536142</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.192935433568644</v>
@@ -27543,7 +27507,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.748321893844268</v>
+        <v>1.795163925947749</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.037688918836869</v>
@@ -27632,7 +27596,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.736369160472727</v>
+        <v>1.78246777497546</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.190446783977814</v>
@@ -27721,7 +27685,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.729721546697874</v>
+        <v>1.773497280445459</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.63259176399984</v>
@@ -27810,7 +27774,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.757552417546066</v>
+        <v>1.803366833354423</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.089652346082843</v>
@@ -27899,7 +27863,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.772828301067004</v>
+        <v>1.820726049373825</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.190487131325618</v>
@@ -27988,7 +27952,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.787575281460988</v>
+        <v>1.831337238978325</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.62601843334407</v>
@@ -28077,7 +28041,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.775652425094386</v>
+        <v>1.821851835142453</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.50550978381803</v>
@@ -28166,7 +28130,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.771879392749039</v>
+        <v>1.815116646364995</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.138610364006861</v>
@@ -28255,7 +28219,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.762769196294951</v>
+        <v>1.809577310333221</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.923589516598355</v>
@@ -28344,7 +28308,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.783044588347982</v>
+        <v>1.831419874370395</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.228849362762677</v>
@@ -28433,7 +28397,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.783355754634288</v>
+        <v>1.836248791630459</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.952895988118738</v>
@@ -28522,7 +28486,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.772091209280775</v>
+        <v>1.826428877392431</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.175637827724617</v>
@@ -28611,7 +28575,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.783025928605008</v>
+        <v>1.836238311740254</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.087124435645509</v>
@@ -28700,7 +28664,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.793309829787344</v>
+        <v>1.850844116870815</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.45333447955906</v>
